--- a/public/cohort/fileExcel/xlsxUIT/REK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/REK PTA en onderwijsprogramma.xlsx
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2167,7 +2167,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3247,7 +3247,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4404,7 +4404,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5487,7 +5487,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6562,7 +6562,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7640,7 +7640,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8726,7 +8726,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9806,7 +9806,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80943287</v>
+        <v>44341.37681713</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10886,7 +10886,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/REK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/REK PTA en onderwijsprogramma.xlsx
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382928241</v>
+        <v>44342.630138889</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/REK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/REK PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -917,6 +917,9 @@
     <t>Getallen, Verhoudingen, Meten &amp; meetkunde en verbanden</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>2F</t>
   </si>
   <si>
@@ -2124,7 +2127,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2478,7 +2481,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541145833</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4362,7 +4365,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4716,7 +4719,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541145833</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7129,7 +7132,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7493,26 +7496,36 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1126</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="45">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9365,7 +9378,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9752,10 +9765,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -11255,7 +11268,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -11609,7 +11622,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13491,7 +13504,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13845,7 +13858,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14209,26 +14222,36 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1127</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="45">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -15727,7 +15750,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16081,7 +16104,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16468,10 +16491,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17971,7 +17994,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18325,7 +18348,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541145833</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20209,7 +20232,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20563,7 +20586,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541145833</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
